--- a/graph_generation/results/hermes_llama2/level_3/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_3/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>prompt</t>
   </si>
@@ -28,6 +28,220 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ O 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 1 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 1
+ F 0 0 0 0 1 0 1 0 1 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1
+ L 0 0 0 0 1 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 1 0 0 0 1 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 1 0
+ J 0 0 0 0 0 0 0 0 1 0 0 1
+ K 0 0 0 0 0 0 0 0 1 0 0 1
+ L 0 0 0 0 0 0 0 0 0 1 1 0
+    </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -85,21 +299,307 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- B 1 0 1 0 1 1 1 0 0 0 1 1 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- O 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+ A 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ O 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L
+ A 0 1 1 0 0 0 0 1 0 0 0 1
+ B 1 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 1 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 1 0 0 1
+ I 0 0 0 0 0 0 0 1 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0
+ L 1 0 0 0 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 18 nodes labelled A to R. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R
+ A 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ R 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 1 0 0 0 0 0 0 0 1 0 0 1
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 1 1 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0
+ L 0 0 0 0 0 0 0 0 0 1 1 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 0 0 0 0 1 0
+ B 1 0 1 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 1
+ G 0 0 0 0 0 1 0 0 0
+ H 1 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; G
+Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 1
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 1 1
+ H 1 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0
+ J 0 0 0 0 0 0 1 0 1 0 0
+ K 0 0 0 0 1 0 1 0 0 0 0
+Solution: A -&gt; C -&gt; E -&gt; G
+Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K
+ A 0 1 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 1
+ D 0 0 1 0 1 0 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 1 0
+ H 0 0 0 0 0 0 1 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 1 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -159,23 +659,23 @@
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 0 1 1 0 1 0 1
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 1 0 1 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0
  G 0 0 0 0 0 1 0 1 0 0 0 0 0 0
  H 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- L 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ K 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  M 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- N 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -229,586 +729,87 @@
 Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1
- F 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- O 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 1 1 0 1 0 0 0 0 0 1 1
- B 1 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 1 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 1 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 1
- L 1 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 1 0 0 1 1 0
- C 0 1 0 1 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0 0 0 0
- H 0 1 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 1
- J 0 0 0 0 0 0 0 0 1 0 1 0 0
- K 0 1 0 0 0 0 0 0 0 1 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 1 0 0 0 0 0 0 0 0 1 0
- B 1 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 1 0 0 0 0 1 0
- E 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 1
- I 0 0 0 0 0 0 0 1 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 1
- K 1 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 1 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 1 1 0 0 0 0 1 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 1 0 0 0 1 1
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 1 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- L 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- M 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- N 0 0 0 0 0 0 1 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 1 0 1 0 1 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 1 1 0 1 1
- G 0 0 0 0 0 1 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1
- L 0 0 0 0 0 1 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
- E 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- N 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- O 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 0 0 0 0 1 0
- B 1 0 1 0 0 1 0 1 1
- C 0 1 0 1 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0
- E 0 0 0 1 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 1
- G 0 0 0 0 0 1 0 0 0
- H 1 1 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; G
-Example 2: What is the shortest path from node A to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 1 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 1
- F 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 1 1
- H 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 1 0
- J 0 0 0 0 0 0 1 0 1 0 0
- K 0 0 0 0 1 0 1 0 0 0 0
-Solution: A -&gt; C -&gt; E -&gt; G
-Example 3: What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
-Solution: A -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O
- Given these examples, answer the following quesiton.
-What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 0 0 0 0 0 0 0 0 0 0 1
- B 1 0 1 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0 1 0 0
- E 0 0 0 1 0 1 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0
- K 0 0 0 1 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1
- M 1 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; K -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; K -&gt; D -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; E -&gt; I -&gt; J</t>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; F -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; G -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
 1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
 2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, and D). The new distances are: B = 1, C = 1, and D = 1.
-4. Select the node with the smallest distance among the unvisited nodes (B) and mark it as visited.
-5. Update the distances to its neighbors (F and G). The new distances are: F = 2 and G = 2.
-6. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited.
-7. Update the distances to its neighbors (G). The new distance is: G = 2.
-8. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
-9. Update the distances to its neighbors (H and I). The new distances are: H = 3 and I = 3.
-10. Select the node with the smallest distance among the unvisited nodes (H) and mark it as visited.
-11. Update the distances to its neighbors (I). The new distance is: I = 3.
-12. Select the node with the smallest distance among the unvisited nodes (I) and mark it as visited.
-13. Update the distances to its neighbors (J). The new distance is: J = 4.
-14. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited.
-Since we have reached node J, we can stop the algorithm. The shortest path from node A to node J is A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J with a total distance of 4.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, and D). The new distances are: B = 1, C = 1, and D = 1.
-4. Select the node with the smallest distance among the unvisited nodes (B) and mark it as visited.
-5. Update the distances to its neighbors (F and G). The new distances are: F = 2 and G = 2.
-6. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited.
-7. Update the distances to its neighbors (J). The new distance is: J = 3.
-8. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
-9. Update the distances to its neighbors (H and I). The new distances are: H = 4 and I = 4.
-10. Select the node with the smallest distance among the unvisited nodes (H) and mark it as visited.
-11. Update the distances to its neighbors (J). The new distance is: J = 4.
-12. Select the node with the smallest distance among the unvisited nodes (I) and mark it as visited.
-13. Update the distances to its neighbors (J). The new distance is: J = 3.
-14. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited.
-Since we have reached the destination node (J), we can stop the algorithm. The shortest path from node A to node J is A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J with a total distance of 4.</t>
+3. Update the distances to its neighbors (B and C) by adding the distance to A and the weight of the edge connecting A and the neighbor. If the new distance is smaller than the current distance, update the distance.
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
+Following this process, we get the following distances:
+A: 0
+B: 1
+C: 2
+D: 3
+E: 4
+F: 5
+G: 6
+H: 7
+I: 8
+J: 9
+K: 10
+L: 11
+M: 12
+N: 13
+O: 14
+P: 15
+Q: 16
+R: 17
+S: 18
+T: 19
+U: 20
+Since the distance to J is 9, the shortest path from A to J is A -&gt; C -&gt; E -&gt; G -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O -&gt; J. The sequence of nodes is A, C, E, G, T, U, K, N, O, J.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
@@ -819,22 +820,12 @@
 5. Update the distances to its neighbors (E and F). The new distances are: E = 2 and F = 2.
 6. Select the node with the smallest distance among the unvisited nodes (E) and mark it as visited.
 7. Update the distances to its neighbors (G and I). The new distances are: G = 3 and I = 3.
-8. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited.
-9. Update the distances to its neighbors (G and I). The new distances are: G = 2 and I = 2.
-10. Select the node with the smallest distance among the unvisited nodes (I) and mark it as visited.
-11. Update the distances to its neighbors (J and K). The new distances are: J = 3 and K = 3.
-12. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
-13. Update the distances to its neighbors (H and K). The new distances are: H = 4 and K = 2.
-14. Select the node with the smallest distance among the unvisited nodes (K) and mark it as visited.
-15. Update the distances to its neighbors (L and N). The new distances are: L = 4 and N = 3.
-16. Select the node with the smallest distance among the unvisited nodes (N) and mark it as visited.
-17. Update the</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; C -&gt; E -&gt; G -&gt; J.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; I -&gt; J.</t>
+8. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
+9. Update the distances to its neighbors (H and J). The new distances are: H = 4 and J = 4.
+10. Select the node with the smallest distance among the unvisited nodes (H) and mark it as visited.
+11. Update the distances to its neighbors (I) but the distance remains the same (4).
+12. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited.
+Since we have reached node J, we can stop the algorithm. The shortest path from node A to node J is A -&gt; E -&gt; G -&gt; H -&gt; J with a total distance of 4.</t>
   </si>
   <si>
     <t>The shortest path from node A to node J is A -&gt; H -&gt; J.</t>
@@ -843,21 +834,70 @@
     <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
 1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
 2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, and D). The new distances are: B = 1, C = 1, and D = 1.
-4. Select the node with the smallest distance among the unvisited nodes (C) and mark it as visited.
-5. Update the distances to its neighbors (E and I). The new distances are: E = 2 and I = 2.
-6. Select the node with the smallest distance among the unvisited nodes (E) and mark it as visited.
-7. Update the distances to its neighbors (F and G). The new distances are: F = 3 and G = 3.
-8. Select the node with the smallest distance among the unvisited nodes (I) and mark it as visited.
-9. Update the distances to its neighbors (J and K). The new distances are: J = 4 and K = 4.
-10. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited.
-Since we have reached node J, we can stop the algorithm. The shortest path from node A to node J is A -&gt; C -&gt; E -&gt; I -&gt; J with a total distance of 4.</t>
+3. Update the distances to its neighbors (B, C, D, and H). The new distances are: B (1), C (1), D (1), and H (1).
+4. Select the node with the smallest distance among the unvisited nodes (B) and mark it as visited.
+5. Update the distances to its neighbors (F and I). The new distances are: F (2) and I (2).
+6. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited.
+7. Update the distances to its neighbors (G and Q). The new distances are: G (3) and Q (2).
+8. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
+9. Update the distances to its neighbors (K and R). The new distances are: K (4) and R (3).
+10. Select the node with the smallest distance among the unvisited nodes (R) and mark it as visited.
+11. Update the distances to its neighbors (P and Q). The new distances are: P (5) and Q (3).
+12. Select the node with the smallest distance among the unvisited nodes (Q) and mark it as visited.
+13. Update the distances to its neighbors (T and U). The new distances are: T (4) and U (5).
+14. Select the node with the smallest distance among the unvisited nodes (T) and mark it as visited.
+15. Update the distances to its neighbors (U and K). The new distances are: U (6) and K (5).
+16. Select the node with the smallest distance among the unvisited nodes (U) and mark it as visited.
+17. Update the distances to its</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A -&gt; C -&gt; E -&gt; G -&gt; J.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (A) and mark it as visited.
+3. Update the distances to its neighbors (B and C) by adding the distance to the current node (A) to the weight of the edge connecting the two nodes. If the new distance is smaller than the current distance, update the distance.
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
+Following this process, we get the following sequence of nodes:
+A -&gt; C -&gt; E -&gt; G -&gt; J
+So, the shortest path from node A to node J is A -&gt; C -&gt; E -&gt; G -&gt; J.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (A) and mark it as visited.
+3. Update the distances to its neighbors (B and C) by adding the distance to A and the weight of the edge connecting A and the neighbor. If the new distance is smaller than the current distance, update the distance.
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
+Following this process, we get the following distances:
+A: 0
+B: 1
+C: 2
+D: 3
+E: 4
+F: 5
+G: 6
+H: 7
+I: 8
+J: 9
+K: 10
+L: 11
+M: 12
+N: 13
+O: 14
+P: 15
+Q: 16
+R: 17
+S: 18
+T: 19
+U: 20
+Since the distance to J is 9, the shortest path from A to J is A -&gt; I -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O -&gt; J. The sequence of nodes is A -&gt; I -&gt; T -&gt; U -&gt; K -&gt; N -&gt; O -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Correct</t>
+    <t>Wrong.</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1286,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1260,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1271,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -1285,10 +1325,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1299,10 +1339,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1313,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1327,10 +1367,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1341,10 +1381,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1358,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1369,10 +1409,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
